--- a/medicine/Sexualité et sexologie/René_Guyon_Society/René_Guyon_Society.xlsx
+++ b/medicine/Sexualité et sexologie/René_Guyon_Society/René_Guyon_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Guyon_Society</t>
+          <t>René_Guyon_Society</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La René Guyon Society était un groupe américain qui défendait les relations sexuelles entre adultes et enfants. Son leader était Jonathan Evan Edwards.
 Il tire ses principes de l'ouvrage de René Guyon, un juriste français qui écrivit notamment une importante somme sur la sexualité humaine à partir des années 1930, Étude d'éthique sexuelle, en 10 volumes (dont le premier s'intitule La Légitimité des actes sexuels). Les ayants-droit de Guyon, dont l'Institut Kinsey, ont dénoncé cet amalgame et l'usage du patronyme avec fermeté, étant donné que les activités de ce groupe ainsi que leurs revendications ne correspondent en rien aux aspects théoriques du penseur.
